--- a/seguimiento_clientes_actualizado.xlsx
+++ b/seguimiento_clientes_actualizado.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-14 14:31:56</t>
+          <t>2025-08-15 13:09:38</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-14 14:31:56</t>
+          <t>2025-08-15 13:09:38</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-14 14:31:56</t>
+          <t>2025-08-15 13:09:38</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-14 14:31:56</t>
+          <t>2025-08-15 13:09:38</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-14 14:31:56</t>
+          <t>2025-08-15 13:09:38</t>
         </is>
       </c>
     </row>
